--- a/file/course.xlsx
+++ b/file/course.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21431" windowHeight="10020"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>主键</t>
   </si>
@@ -33,18 +34,21 @@
   <si>
     <t>英语</t>
   </si>
+  <si>
+    <t>体育</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +57,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,77 +93,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,55 +164,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,187 +210,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +401,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,35 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,17 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,151 +492,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,8 +972,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1029,4 +1026,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>